--- a/Pedidos/Octubre 2019/Pedidos para Octubre.xlsx
+++ b/Pedidos/Octubre 2019/Pedidos para Octubre.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD859059-E354-4127-B2E7-8B623E2FCB7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CED579-BF6C-484F-9C96-FF0A3E0A033E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="121">
   <si>
     <t>Casa comercial</t>
   </si>
@@ -300,9 +300,6 @@
     <t>Pipetas serológicas con filtro 10mL</t>
   </si>
   <si>
-    <t>300 u / individual</t>
-  </si>
-  <si>
     <t>3 cajas</t>
   </si>
   <si>
@@ -327,9 +324,6 @@
     <t>100 muestras</t>
   </si>
   <si>
-    <t>5.55</t>
-  </si>
-  <si>
     <t>Puntas de pipeta de 0,1-10uL, blancas</t>
   </si>
   <si>
@@ -358,9 +352,6 @@
   </si>
   <si>
     <t>paquete de 200</t>
-  </si>
-  <si>
-    <t>2 paquetes</t>
   </si>
   <si>
     <t>x</t>
@@ -391,25 +382,104 @@
     </r>
   </si>
   <si>
-    <t>Presupuesto pedido a Gema</t>
-  </si>
-  <si>
     <t>Pdf en carpeta de pedidos</t>
   </si>
   <si>
-    <t>Presupuesto pedido a Cultek (Patricia Santos)</t>
-  </si>
-  <si>
-    <t>Presupuesto pedido a Novus</t>
-  </si>
-  <si>
-    <t>Presupuesto pedido a BioRAD</t>
-  </si>
-  <si>
     <t>10 cajas</t>
   </si>
   <si>
-    <t>Presupuesto pedido a VWR</t>
+    <r>
+      <t xml:space="preserve">Presupuesto pedido a BioRAD - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>RECIBIDO</t>
+    </r>
+  </si>
+  <si>
+    <t>Ampicilina (Roche)</t>
+  </si>
+  <si>
+    <t>Ampicilina (Sigma)</t>
+  </si>
+  <si>
+    <t>A9393-5G</t>
+  </si>
+  <si>
+    <r>
+      <t>Presupuesto pedido a VWR -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> RECIBIDO</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFFA500"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Realizar tal cual</t>
+    </r>
+  </si>
+  <si>
+    <t>1 paquete</t>
+  </si>
+  <si>
+    <t>Presupuesto pedido a Gema - Modificar</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Presupuesto pedido a Cultek (Patricia Santos) - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>RECIBIDO</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFF09C06"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Modificar</t>
+    </r>
+  </si>
+  <si>
+    <t>200 u / individual</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Presupuesto pedido a Novus - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>RECIBIDO</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -423,7 +493,7 @@
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-C0A]_-;\-* #,##0.00\ [$€-C0A]_-;_-* &quot;-&quot;??\ [$€-C0A]_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,8 +569,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -540,6 +616,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,7 +707,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -750,17 +838,50 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1050,10 +1171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M44"/>
+  <dimension ref="A2:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1298,7 +1419,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>25</v>
@@ -1310,7 +1431,7 @@
         <v>27</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>28</v>
@@ -1318,13 +1439,13 @@
       <c r="G15" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="62" t="s">
-        <v>113</v>
+      <c r="H15" s="72" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>30</v>
@@ -1344,518 +1465,566 @@
       <c r="G16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="62"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H16" s="72"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="8">
+        <v>10835242001</v>
+      </c>
+      <c r="E17" s="13">
+        <v>52.9</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="72"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="13">
+        <v>61.3</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="72"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C20" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D20" s="23">
         <v>12307263</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E20" s="33">
         <v>19.739999999999998</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F20" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="G20" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="62" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="29">
-        <v>18265017</v>
-      </c>
-      <c r="E19" s="10">
-        <v>66</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="62"/>
-    </row>
-    <row r="20" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="10">
-        <v>43.13</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="62"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
+      <c r="H20" s="72" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B21" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="25">
-        <v>10212951</v>
-      </c>
-      <c r="E21" s="47">
-        <v>64.819999999999993</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" s="62"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="25">
-        <v>11825275</v>
-      </c>
-      <c r="E22" s="47">
-        <v>35.950000000000003</v>
+        <v>107</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="29">
+        <v>18265017</v>
+      </c>
+      <c r="E21" s="10">
+        <v>66</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="72"/>
+    </row>
+    <row r="22" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="10">
+        <v>43.13</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="H22" s="62"/>
+        <v>72</v>
+      </c>
+      <c r="G22" s="19"/>
+      <c r="H22" s="72"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="26">
-        <v>11933416</v>
-      </c>
-      <c r="E23" s="47">
-        <v>8.4600000000000009</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="H23" s="62"/>
+      <c r="D23" s="65">
+        <v>10212951</v>
+      </c>
+      <c r="E23" s="66">
+        <v>64.819999999999993</v>
+      </c>
+      <c r="F23" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="72"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>107</v>
+        <v>107</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>83</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="61" t="s">
+      <c r="D24" s="25">
+        <v>11825275</v>
+      </c>
+      <c r="E24" s="47">
+        <v>35.950000000000003</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="72"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="70">
+        <v>11933416</v>
+      </c>
+      <c r="E25" s="66">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="F25" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" s="72"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="47">
+        <v>48.27</v>
+      </c>
+      <c r="F26" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="E24" s="47">
-        <v>48.27</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="H24" s="62"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="52"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B26" s="35" t="s">
+      <c r="G26" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26" s="72"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="52"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C28" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D28" s="37" t="s">
         <v>41</v>
-      </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" s="63" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="10">
-        <v>673.19</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8">
-        <v>1</v>
-      </c>
-      <c r="H27" s="63"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="8">
-        <v>1</v>
-      </c>
-      <c r="H28" s="63"/>
+      <c r="G28" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="74" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H29" s="63"/>
+      <c r="D29" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="10">
+        <v>673.19</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8">
+        <v>1</v>
+      </c>
+      <c r="H29" s="74"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
+      <c r="A30" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="71">
+        <v>1</v>
+      </c>
+      <c r="H30" s="74"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="20"/>
+      <c r="F31" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H31" s="74"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="17"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C33" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D33" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E33" s="78">
         <v>246</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F33" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="20">
+      <c r="G33" s="71">
         <v>1</v>
       </c>
-      <c r="H31" s="63" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="21">
-        <v>396</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G32" s="20">
-        <v>1</v>
-      </c>
-      <c r="H32" s="63"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="52"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
+      <c r="H33" s="75" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B34" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="14">
-        <v>5000113</v>
+        <v>107</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>49</v>
       </c>
       <c r="E34" s="21">
-        <v>84</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="8">
+        <v>396</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="20">
         <v>1</v>
       </c>
-      <c r="H34" s="64" t="s">
-        <v>116</v>
-      </c>
+      <c r="H34" s="75"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B35" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="14">
-        <v>5000114</v>
-      </c>
-      <c r="E35" s="21">
-        <v>96</v>
-      </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8">
-        <v>1</v>
-      </c>
-      <c r="H35" s="64"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>73</v>
       </c>
       <c r="D36" s="14">
-        <v>5000115</v>
+        <v>5000113</v>
       </c>
       <c r="E36" s="21">
-        <v>63</v>
-      </c>
-      <c r="F36" s="8"/>
+        <v>84</v>
+      </c>
+      <c r="F36" s="1"/>
       <c r="G36" s="8">
         <v>1</v>
       </c>
-      <c r="H36" s="64"/>
+      <c r="H36" s="76" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="52"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="11"/>
+      <c r="A37" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="14">
+        <v>5000114</v>
+      </c>
+      <c r="E37" s="21">
+        <v>96</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8">
+        <v>1</v>
+      </c>
+      <c r="H37" s="76"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="E38" s="47">
-        <v>46.85</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H38" s="62" t="s">
-        <v>118</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="14">
+        <v>5000115</v>
+      </c>
+      <c r="E38" s="21">
+        <v>63</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8">
+        <v>1</v>
+      </c>
+      <c r="H38" s="76"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="E39" s="20">
-        <v>10.75</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="H39" s="65"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="11"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" s="47">
+        <v>46.85</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H40" s="72" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="47">
+        <v>10.75</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="H41" s="73"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="47">
+        <v>5.55</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G42" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B40" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="H40" s="65"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C44" s="11"/>
+      <c r="H42" s="73"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C46" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="H18:H24"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="H20:H26"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="H15:H18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -1865,11 +2034,11 @@
     <hyperlink ref="C6" r:id="rId4" xr:uid="{542B1CA8-033C-4F05-BBD6-D770AB0C570F}"/>
     <hyperlink ref="C15" r:id="rId5" xr:uid="{DFCE1286-D243-45EE-ADAF-62C557AB0CF9}"/>
     <hyperlink ref="C16" r:id="rId6" xr:uid="{29A08B45-F04E-451E-BC08-1AD68156DD76}"/>
-    <hyperlink ref="C18" r:id="rId7" xr:uid="{C7764FCB-3184-44CB-885F-53B96F0D5A7B}"/>
-    <hyperlink ref="C19" r:id="rId8" location="/18265017" xr:uid="{0CFE1671-9932-4231-A68A-BA1C3F291F77}"/>
-    <hyperlink ref="C26" r:id="rId9" xr:uid="{CE355E3B-D447-4876-8E1C-6FBE3AB83986}"/>
-    <hyperlink ref="C31" r:id="rId10" xr:uid="{587A0B7E-8EFF-4C28-8988-3A0C9A8EC216}"/>
-    <hyperlink ref="C32" r:id="rId11" xr:uid="{2D574AE0-B5FF-4EBA-93B9-BE499EAD7754}"/>
+    <hyperlink ref="C20" r:id="rId7" xr:uid="{C7764FCB-3184-44CB-885F-53B96F0D5A7B}"/>
+    <hyperlink ref="C21" r:id="rId8" location="/18265017" xr:uid="{0CFE1671-9932-4231-A68A-BA1C3F291F77}"/>
+    <hyperlink ref="C28" r:id="rId9" xr:uid="{CE355E3B-D447-4876-8E1C-6FBE3AB83986}"/>
+    <hyperlink ref="C33" r:id="rId10" xr:uid="{587A0B7E-8EFF-4C28-8988-3A0C9A8EC216}"/>
+    <hyperlink ref="C34" r:id="rId11" xr:uid="{2D574AE0-B5FF-4EBA-93B9-BE499EAD7754}"/>
     <hyperlink ref="C7" r:id="rId12" xr:uid="{D1BEC871-A278-4D19-8483-AF3700821D8C}"/>
     <hyperlink ref="C8" r:id="rId13" xr:uid="{D0F3EBAB-DA02-4B0B-8D9A-6860F7DFB201}"/>
     <hyperlink ref="C9" r:id="rId14" xr:uid="{E60B62DA-5B15-4907-B80C-781E3021ED47}"/>
@@ -1877,9 +2046,11 @@
     <hyperlink ref="C11" r:id="rId16" xr:uid="{CD45665B-1C18-41CA-923E-ED06A0A2CE77}"/>
     <hyperlink ref="C12" r:id="rId17" xr:uid="{56902BCF-F84D-4640-8D82-AF99F0A1AB0E}"/>
     <hyperlink ref="C13" r:id="rId18" xr:uid="{35EB5830-E1E8-4379-B0E4-8BB51C307F7D}"/>
-    <hyperlink ref="C29" r:id="rId19" xr:uid="{979A6EFF-BE38-431F-90C8-DD0240C13FCF}"/>
+    <hyperlink ref="C31" r:id="rId19" xr:uid="{979A6EFF-BE38-431F-90C8-DD0240C13FCF}"/>
+    <hyperlink ref="C18" r:id="rId20" xr:uid="{2C8F53DD-BED4-40A5-BDF1-AA79243370BF}"/>
+    <hyperlink ref="C17" r:id="rId21" xr:uid="{63BDC646-D45C-4014-A468-4827561CB8BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
--- a/Pedidos/Octubre 2019/Pedidos para Octubre.xlsx
+++ b/Pedidos/Octubre 2019/Pedidos para Octubre.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CED579-BF6C-484F-9C96-FF0A3E0A033E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4645457A-2597-40B6-86B4-0CCF4E4E3D1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16935" yWindow="2655" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="130">
   <si>
     <t>Casa comercial</t>
   </si>
@@ -438,9 +438,6 @@
     <t>1 paquete</t>
   </si>
   <si>
-    <t>Presupuesto pedido a Gema - Modificar</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Presupuesto pedido a Cultek (Patricia Santos) - </t>
     </r>
@@ -480,6 +477,47 @@
       </rPr>
       <t>RECIBIDO</t>
     </r>
+  </si>
+  <si>
+    <t>Filipina III</t>
+  </si>
+  <si>
+    <t>F4767-1MG</t>
+  </si>
+  <si>
+    <t>1mg</t>
+  </si>
+  <si>
+    <t>1unidad</t>
+  </si>
+  <si>
+    <t>XL10-Gold Ultracompetent Cells</t>
+  </si>
+  <si>
+    <t>Agilent</t>
+  </si>
+  <si>
+    <t>Santa Cruz Biotechnology</t>
+  </si>
+  <si>
+    <t>Presupuesto pedido a Agilent (Alfredo Caro)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Presupuesto pedido a Quimigen (Beatris Alonso) - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>RECIBIDO</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Presupuesto pedido a Gema - Modificar, Thermo en pdf </t>
   </si>
 </sst>
 </file>
@@ -576,7 +614,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -622,12 +660,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,11 +739,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -787,20 +816,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -841,27 +856,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -877,11 +871,56 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1171,10 +1210,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M46"/>
+  <dimension ref="A2:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,843 +1227,916 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="59" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="27" t="s">
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="59"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="27" t="s">
+      <c r="D5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="59"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="27" t="s">
+      <c r="D6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="59"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="D7" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="64">
+        <v>290</v>
+      </c>
+      <c r="F7" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="27" t="s">
+      <c r="G7" s="63"/>
+      <c r="H7" s="59"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="39">
+      <c r="D8" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="64">
         <v>290</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F8" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="27" t="s">
+      <c r="G8" s="63"/>
+      <c r="H8" s="59"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="39">
+      <c r="D9" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="63"/>
+      <c r="H9" s="59"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="69">
         <v>290</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="42" t="s">
+      <c r="F10" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="63"/>
+      <c r="H10" s="59"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="27" t="s">
+      <c r="D11" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="69">
+        <v>290</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="63"/>
+      <c r="H11" s="59"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="44">
+      <c r="D12" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="69">
         <v>290</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F12" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="27" t="s">
+      <c r="G12" s="63"/>
+      <c r="H12" s="59"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="44">
+      <c r="D13" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="69">
         <v>290</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F13" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="44">
-        <v>290</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="44">
-        <v>290</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="8"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="59"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="72" t="s">
+      <c r="H15" s="56" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="71">
         <v>89.2</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="72"/>
+      <c r="H16" s="56"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>10835242001</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="12">
         <v>52.9</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="72"/>
+      <c r="H17" s="56"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="71">
         <v>61.3</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="72"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="2"/>
+      <c r="H18" s="56"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="12">
+        <v>101</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="56"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20" s="31" t="s">
+      <c r="A20" s="17"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C21" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D21" s="22">
         <v>12307263</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E21" s="32">
         <v>19.739999999999998</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F21" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="G21" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="72" t="s">
+      <c r="H21" s="56" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="28">
+        <v>18265017</v>
+      </c>
+      <c r="E22" s="9">
+        <v>66</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="56"/>
+    </row>
+    <row r="23" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="9">
+        <v>43.13</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="18"/>
+      <c r="H23" s="56"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="74">
+        <v>10212951</v>
+      </c>
+      <c r="E24" s="75">
+        <v>64.819999999999993</v>
+      </c>
+      <c r="F24" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24" s="56"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="24">
+        <v>11825275</v>
+      </c>
+      <c r="E25" s="40">
+        <v>35.950000000000003</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="56"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="62">
+        <v>11933416</v>
+      </c>
+      <c r="E26" s="75">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="F26" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="H26" s="56"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="40">
+        <v>48.27</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" s="56"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="45"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="58" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="29">
-        <v>18265017</v>
-      </c>
-      <c r="E21" s="10">
-        <v>66</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="72"/>
-    </row>
-    <row r="22" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="10">
-        <v>43.13</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="72"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="65">
-        <v>10212951</v>
-      </c>
-      <c r="E23" s="66">
-        <v>64.819999999999993</v>
-      </c>
-      <c r="F23" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" s="68" t="s">
-        <v>82</v>
-      </c>
-      <c r="H23" s="72"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="25">
-        <v>11825275</v>
-      </c>
-      <c r="E24" s="47">
-        <v>35.950000000000003</v>
-      </c>
-      <c r="F24" s="9" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="9">
+        <v>673.19</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7">
+        <v>1</v>
+      </c>
+      <c r="H30" s="58"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="63">
+        <v>1</v>
+      </c>
+      <c r="H31" s="58"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="19"/>
+      <c r="F32" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H32" s="58"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="79">
+        <v>246</v>
+      </c>
+      <c r="F34" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="63">
+        <v>1</v>
+      </c>
+      <c r="H34" s="59" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="20">
+        <v>396</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="19">
+        <v>1</v>
+      </c>
+      <c r="H35" s="59"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="45"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="74">
+        <v>5000113</v>
+      </c>
+      <c r="E37" s="79">
         <v>84</v>
       </c>
-      <c r="G24" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="H24" s="72"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" s="69" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="70">
-        <v>11933416</v>
-      </c>
-      <c r="E25" s="66">
-        <v>8.4600000000000009</v>
-      </c>
-      <c r="F25" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="G25" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="H25" s="72"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26" s="47">
-        <v>48.27</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="G26" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="H26" s="72"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="52"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B28" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H28" s="74" t="s">
+      <c r="F37" s="76"/>
+      <c r="G37" s="63">
+        <v>1</v>
+      </c>
+      <c r="H37" s="60" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="74">
+        <v>5000114</v>
+      </c>
+      <c r="E38" s="79">
+        <v>96</v>
+      </c>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63">
+        <v>1</v>
+      </c>
+      <c r="H38" s="60"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="13">
+        <v>5000115</v>
+      </c>
+      <c r="E39" s="20">
+        <v>63</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7">
+        <v>1</v>
+      </c>
+      <c r="H39" s="60"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="45"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" s="40">
+        <v>46.85</v>
+      </c>
+      <c r="F41" s="19" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="10">
-        <v>673.19</v>
-      </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8">
-        <v>1</v>
-      </c>
-      <c r="H29" s="74"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B30" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" s="71">
-        <v>1</v>
-      </c>
-      <c r="H30" s="74"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H31" s="74"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B33" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="70" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="78">
-        <v>246</v>
-      </c>
-      <c r="F33" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="G33" s="71">
-        <v>1</v>
-      </c>
-      <c r="H33" s="75" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="21">
-        <v>396</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G34" s="20">
-        <v>1</v>
-      </c>
-      <c r="H34" s="75"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="52"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B36" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="14">
-        <v>5000113</v>
-      </c>
-      <c r="E36" s="21">
-        <v>84</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="8">
-        <v>1</v>
-      </c>
-      <c r="H36" s="76" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="14">
-        <v>5000114</v>
-      </c>
-      <c r="E37" s="21">
+      <c r="G41" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H41" s="56" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" s="40">
+        <v>10.75</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H42" s="57"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="40">
+        <v>5.55</v>
+      </c>
+      <c r="F43" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8">
-        <v>1</v>
-      </c>
-      <c r="H37" s="76"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B38" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="14">
-        <v>5000115</v>
-      </c>
-      <c r="E38" s="21">
-        <v>63</v>
-      </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8">
-        <v>1</v>
-      </c>
-      <c r="H38" s="76"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="52"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="11"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B40" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="E40" s="47">
-        <v>46.85</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H40" s="72" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B41" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E41" s="47">
-        <v>10.75</v>
-      </c>
-      <c r="F41" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G41" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H41" s="73"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B42" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="E42" s="47">
-        <v>5.55</v>
-      </c>
-      <c r="F42" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="G42" s="20" t="s">
+      <c r="G43" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="H42" s="73"/>
+      <c r="H43" s="57"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" s="31">
+        <v>200315</v>
+      </c>
+      <c r="E45" s="80">
+        <v>311</v>
+      </c>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" s="81" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C46" s="11"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C47" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="H20:H26"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="H15:H18"/>
+  <mergeCells count="7">
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="H3:H13"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="H21:H27"/>
+    <mergeCell ref="H29:H32"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="H37:H39"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -2034,11 +2146,11 @@
     <hyperlink ref="C6" r:id="rId4" xr:uid="{542B1CA8-033C-4F05-BBD6-D770AB0C570F}"/>
     <hyperlink ref="C15" r:id="rId5" xr:uid="{DFCE1286-D243-45EE-ADAF-62C557AB0CF9}"/>
     <hyperlink ref="C16" r:id="rId6" xr:uid="{29A08B45-F04E-451E-BC08-1AD68156DD76}"/>
-    <hyperlink ref="C20" r:id="rId7" xr:uid="{C7764FCB-3184-44CB-885F-53B96F0D5A7B}"/>
-    <hyperlink ref="C21" r:id="rId8" location="/18265017" xr:uid="{0CFE1671-9932-4231-A68A-BA1C3F291F77}"/>
-    <hyperlink ref="C28" r:id="rId9" xr:uid="{CE355E3B-D447-4876-8E1C-6FBE3AB83986}"/>
-    <hyperlink ref="C33" r:id="rId10" xr:uid="{587A0B7E-8EFF-4C28-8988-3A0C9A8EC216}"/>
-    <hyperlink ref="C34" r:id="rId11" xr:uid="{2D574AE0-B5FF-4EBA-93B9-BE499EAD7754}"/>
+    <hyperlink ref="C21" r:id="rId7" xr:uid="{C7764FCB-3184-44CB-885F-53B96F0D5A7B}"/>
+    <hyperlink ref="C22" r:id="rId8" location="/18265017" xr:uid="{0CFE1671-9932-4231-A68A-BA1C3F291F77}"/>
+    <hyperlink ref="C29" r:id="rId9" xr:uid="{CE355E3B-D447-4876-8E1C-6FBE3AB83986}"/>
+    <hyperlink ref="C34" r:id="rId10" xr:uid="{587A0B7E-8EFF-4C28-8988-3A0C9A8EC216}"/>
+    <hyperlink ref="C35" r:id="rId11" xr:uid="{2D574AE0-B5FF-4EBA-93B9-BE499EAD7754}"/>
     <hyperlink ref="C7" r:id="rId12" xr:uid="{D1BEC871-A278-4D19-8483-AF3700821D8C}"/>
     <hyperlink ref="C8" r:id="rId13" xr:uid="{D0F3EBAB-DA02-4B0B-8D9A-6860F7DFB201}"/>
     <hyperlink ref="C9" r:id="rId14" xr:uid="{E60B62DA-5B15-4907-B80C-781E3021ED47}"/>
@@ -2046,11 +2158,13 @@
     <hyperlink ref="C11" r:id="rId16" xr:uid="{CD45665B-1C18-41CA-923E-ED06A0A2CE77}"/>
     <hyperlink ref="C12" r:id="rId17" xr:uid="{56902BCF-F84D-4640-8D82-AF99F0A1AB0E}"/>
     <hyperlink ref="C13" r:id="rId18" xr:uid="{35EB5830-E1E8-4379-B0E4-8BB51C307F7D}"/>
-    <hyperlink ref="C31" r:id="rId19" xr:uid="{979A6EFF-BE38-431F-90C8-DD0240C13FCF}"/>
+    <hyperlink ref="C32" r:id="rId19" xr:uid="{979A6EFF-BE38-431F-90C8-DD0240C13FCF}"/>
     <hyperlink ref="C18" r:id="rId20" xr:uid="{2C8F53DD-BED4-40A5-BDF1-AA79243370BF}"/>
     <hyperlink ref="C17" r:id="rId21" xr:uid="{63BDC646-D45C-4014-A468-4827561CB8BA}"/>
+    <hyperlink ref="C19" r:id="rId22" xr:uid="{77BD4718-B2E4-4E38-9F88-A42ED80F1BED}"/>
+    <hyperlink ref="D45" r:id="rId23" display="https://www.chem.agilent.com/store/productDetail.jsp?catalogId=200315&amp;catId=SubCat3ECS_227974" xr:uid="{05B22A45-547D-4534-8746-FAE9F259627B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
--- a/Pedidos/Octubre 2019/Pedidos para Octubre.xlsx
+++ b/Pedidos/Octubre 2019/Pedidos para Octubre.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4645457A-2597-40B6-86B4-0CCF4E4E3D1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2911E785-F2E0-4D6D-919A-1ADB2B5C01D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16935" yWindow="2655" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="133">
   <si>
     <t>Casa comercial</t>
   </si>
@@ -518,6 +518,15 @@
   </si>
   <si>
     <t xml:space="preserve">Presupuesto pedido a Gema - Modificar, Thermo en pdf </t>
+  </si>
+  <si>
+    <t>AMICON ULTRA-0.5 CENTRIFUGAL FILTER UNI&amp;</t>
+  </si>
+  <si>
+    <t>UFC501008</t>
+  </si>
+  <si>
+    <t>8 unidades</t>
   </si>
 </sst>
 </file>
@@ -739,7 +748,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -856,21 +865,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -892,10 +886,6 @@
     <xf numFmtId="6" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -921,6 +911,29 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1210,10 +1223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M47"/>
+  <dimension ref="A2:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,7 +1276,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="7"/>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="76" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1286,7 +1299,7 @@
       <c r="G4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="59"/>
+      <c r="H4" s="76"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
@@ -1307,7 +1320,7 @@
       <c r="G5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="59"/>
+      <c r="H5" s="76"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
@@ -1326,140 +1339,140 @@
         <v>24</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="59"/>
+      <c r="H6" s="76"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="59">
         <v>290</v>
       </c>
-      <c r="F7" s="63" t="s">
+      <c r="F7" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="59"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="76"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="64">
+      <c r="E8" s="59">
         <v>290</v>
       </c>
-      <c r="F8" s="63" t="s">
+      <c r="F8" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="63"/>
-      <c r="H8" s="59"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="76"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="68" t="s">
+      <c r="E9" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="67" t="s">
+      <c r="F9" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="63"/>
-      <c r="H9" s="59"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="76"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="69">
+      <c r="E10" s="64">
         <v>290</v>
       </c>
-      <c r="F10" s="63" t="s">
+      <c r="F10" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="63"/>
-      <c r="H10" s="59"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="76"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="69">
+      <c r="E11" s="64">
         <v>290</v>
       </c>
-      <c r="F11" s="63" t="s">
+      <c r="F11" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="63"/>
-      <c r="H11" s="59"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="76"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="69">
+      <c r="E12" s="64">
         <v>290</v>
       </c>
-      <c r="F12" s="63" t="s">
+      <c r="F12" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="63"/>
-      <c r="H12" s="59"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="76"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="69">
+      <c r="E13" s="64">
         <v>290</v>
       </c>
-      <c r="F13" s="63" t="s">
+      <c r="F13" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="63"/>
-      <c r="H13" s="59"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="76"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
@@ -1491,7 +1504,7 @@
       <c r="G15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="56" t="s">
+      <c r="H15" s="75" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1499,25 +1512,25 @@
       <c r="A16" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="71">
+      <c r="E16" s="82">
         <v>89.2</v>
       </c>
-      <c r="F16" s="72" t="s">
+      <c r="F16" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="72" t="s">
+      <c r="G16" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="56"/>
+      <c r="H16" s="75"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
@@ -1541,602 +1554,624 @@
       <c r="G17" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="56"/>
+      <c r="H17" s="75"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="63" t="s">
+      <c r="D18" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="71">
+      <c r="E18" s="82">
         <v>61.3</v>
       </c>
-      <c r="F18" s="72" t="s">
+      <c r="F18" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="72" t="s">
+      <c r="G18" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="56"/>
+      <c r="H18" s="75"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="80" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="82">
+        <v>51.4</v>
+      </c>
+      <c r="F19" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="75"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C20" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="61" t="s">
+      <c r="D20" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E20" s="12">
         <v>101</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F20" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G20" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="H19" s="56"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="1"/>
+      <c r="H20" s="75"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="22">
-        <v>12307263</v>
-      </c>
-      <c r="E21" s="32">
-        <v>19.739999999999998</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="56" t="s">
-        <v>129</v>
-      </c>
+      <c r="A21" s="17"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="28">
-        <v>18265017</v>
-      </c>
-      <c r="E22" s="9">
-        <v>66</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>37</v>
+      <c r="B22" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="22">
+        <v>12307263</v>
+      </c>
+      <c r="E22" s="32">
+        <v>19.739999999999998</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="G22" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="56"/>
-    </row>
-    <row r="23" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="H22" s="75" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="28">
+        <v>18265017</v>
+      </c>
+      <c r="E23" s="9">
+        <v>66</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="75"/>
+    </row>
+    <row r="24" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C24" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D24" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E24" s="9">
         <v>43.13</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F24" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="56"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" s="73" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="74">
-        <v>10212951</v>
-      </c>
-      <c r="E24" s="75">
-        <v>64.819999999999993</v>
-      </c>
-      <c r="F24" s="76" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24" s="72" t="s">
-        <v>82</v>
-      </c>
-      <c r="H24" s="56"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="75"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="B25" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="24">
-        <v>11825275</v>
-      </c>
-      <c r="E25" s="40">
-        <v>35.950000000000003</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="H25" s="56"/>
+      <c r="D25" s="67">
+        <v>10212951</v>
+      </c>
+      <c r="E25" s="68">
+        <v>64.819999999999993</v>
+      </c>
+      <c r="F25" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" s="75"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="B26" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="62">
-        <v>11933416</v>
-      </c>
-      <c r="E26" s="75">
-        <v>8.4600000000000009</v>
-      </c>
-      <c r="F26" s="63" t="s">
-        <v>98</v>
-      </c>
-      <c r="G26" s="72" t="s">
-        <v>99</v>
-      </c>
-      <c r="H26" s="56"/>
+      <c r="D26" s="24">
+        <v>11825275</v>
+      </c>
+      <c r="E26" s="40">
+        <v>35.950000000000003</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" s="75"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="57">
+        <v>11933416</v>
+      </c>
+      <c r="E27" s="68">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="F27" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" s="75"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="54" t="s">
+      <c r="D28" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="E27" s="40">
+      <c r="E28" s="40">
         <v>48.27</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F28" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="G27" s="55" t="s">
+      <c r="G28" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="H27" s="56"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="45"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H29" s="58" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H28" s="75"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="45"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="6" t="s">
+      <c r="B30" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="9">
-        <v>673.19</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7">
-        <v>1</v>
-      </c>
-      <c r="H30" s="58"/>
+      <c r="D30" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="78" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="74" t="s">
+      <c r="B31" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="G31" s="63">
+      <c r="D31" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="9">
+        <v>673.19</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7">
         <v>1</v>
       </c>
-      <c r="H31" s="58"/>
+      <c r="H31" s="78"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="58">
+        <v>1</v>
+      </c>
+      <c r="H32" s="78"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C33" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D33" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="7" t="s">
+      <c r="E33" s="19"/>
+      <c r="F33" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="H32" s="58"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
+      <c r="H33" s="78"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="79">
-        <v>246</v>
-      </c>
-      <c r="F34" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="G34" s="63">
-        <v>1</v>
-      </c>
-      <c r="H34" s="59" t="s">
-        <v>119</v>
-      </c>
+      <c r="A34" s="16"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="72">
+        <v>246</v>
+      </c>
+      <c r="F35" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="58">
+        <v>1</v>
+      </c>
+      <c r="H35" s="76" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C36" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D36" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E36" s="20">
         <v>396</v>
       </c>
-      <c r="F35" s="19" t="s">
+      <c r="F36" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G36" s="19">
         <v>1</v>
       </c>
-      <c r="H35" s="59"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="45"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
+      <c r="H36" s="76"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="74">
-        <v>5000113</v>
-      </c>
-      <c r="E37" s="79">
-        <v>84</v>
-      </c>
-      <c r="F37" s="76"/>
-      <c r="G37" s="63">
-        <v>1</v>
-      </c>
-      <c r="H37" s="60" t="s">
-        <v>111</v>
-      </c>
+      <c r="B37" s="45"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B38" s="73" t="s">
-        <v>75</v>
+      <c r="B38" s="66" t="s">
+        <v>74</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="74">
-        <v>5000114</v>
-      </c>
-      <c r="E38" s="79">
-        <v>96</v>
-      </c>
-      <c r="F38" s="63"/>
-      <c r="G38" s="63">
+      <c r="D38" s="67">
+        <v>5000113</v>
+      </c>
+      <c r="E38" s="72">
+        <v>84</v>
+      </c>
+      <c r="F38" s="69"/>
+      <c r="G38" s="58">
         <v>1</v>
       </c>
-      <c r="H38" s="60"/>
+      <c r="H38" s="79" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="67">
+        <v>5000114</v>
+      </c>
+      <c r="E39" s="72">
+        <v>96</v>
+      </c>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58">
+        <v>1</v>
+      </c>
+      <c r="H39" s="79"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D40" s="13">
         <v>5000115</v>
       </c>
-      <c r="E39" s="20">
+      <c r="E40" s="20">
         <v>63</v>
       </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7">
+      <c r="F40" s="7"/>
+      <c r="G40" s="7">
         <v>1</v>
       </c>
-      <c r="H39" s="60"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="45"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="10"/>
+      <c r="H40" s="79"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B41" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="E41" s="40">
-        <v>46.85</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H41" s="56" t="s">
-        <v>115</v>
-      </c>
+      <c r="B41" s="45"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>107</v>
       </c>
       <c r="B42" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>86</v>
       </c>
       <c r="D42" s="54" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E42" s="40">
-        <v>10.75</v>
+        <v>46.85</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="H42" s="57"/>
+        <v>118</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H42" s="75" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>107</v>
       </c>
       <c r="B43" s="41" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>86</v>
       </c>
       <c r="D43" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" s="40">
+        <v>10.75</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H43" s="77"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="E43" s="40">
+      <c r="E44" s="40">
         <v>5.55</v>
       </c>
-      <c r="F43" s="19" t="s">
+      <c r="F44" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="G43" s="19" t="s">
+      <c r="G44" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="H43" s="57"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
+      <c r="H44" s="77"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C46" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D45" s="31">
+      <c r="D46" s="31">
         <v>200315</v>
       </c>
-      <c r="E45" s="80">
+      <c r="E46" s="73">
         <v>311</v>
       </c>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6" t="s">
+      <c r="F46" s="6"/>
+      <c r="G46" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H45" s="81" t="s">
+      <c r="H46" s="74" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-    </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C47" s="10"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C48" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="H15:H20"/>
     <mergeCell ref="H3:H13"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="H21:H27"/>
-    <mergeCell ref="H29:H32"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="H22:H28"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="H38:H40"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -2146,11 +2181,11 @@
     <hyperlink ref="C6" r:id="rId4" xr:uid="{542B1CA8-033C-4F05-BBD6-D770AB0C570F}"/>
     <hyperlink ref="C15" r:id="rId5" xr:uid="{DFCE1286-D243-45EE-ADAF-62C557AB0CF9}"/>
     <hyperlink ref="C16" r:id="rId6" xr:uid="{29A08B45-F04E-451E-BC08-1AD68156DD76}"/>
-    <hyperlink ref="C21" r:id="rId7" xr:uid="{C7764FCB-3184-44CB-885F-53B96F0D5A7B}"/>
-    <hyperlink ref="C22" r:id="rId8" location="/18265017" xr:uid="{0CFE1671-9932-4231-A68A-BA1C3F291F77}"/>
-    <hyperlink ref="C29" r:id="rId9" xr:uid="{CE355E3B-D447-4876-8E1C-6FBE3AB83986}"/>
-    <hyperlink ref="C34" r:id="rId10" xr:uid="{587A0B7E-8EFF-4C28-8988-3A0C9A8EC216}"/>
-    <hyperlink ref="C35" r:id="rId11" xr:uid="{2D574AE0-B5FF-4EBA-93B9-BE499EAD7754}"/>
+    <hyperlink ref="C22" r:id="rId7" xr:uid="{C7764FCB-3184-44CB-885F-53B96F0D5A7B}"/>
+    <hyperlink ref="C23" r:id="rId8" location="/18265017" xr:uid="{0CFE1671-9932-4231-A68A-BA1C3F291F77}"/>
+    <hyperlink ref="C30" r:id="rId9" xr:uid="{CE355E3B-D447-4876-8E1C-6FBE3AB83986}"/>
+    <hyperlink ref="C35" r:id="rId10" xr:uid="{587A0B7E-8EFF-4C28-8988-3A0C9A8EC216}"/>
+    <hyperlink ref="C36" r:id="rId11" xr:uid="{2D574AE0-B5FF-4EBA-93B9-BE499EAD7754}"/>
     <hyperlink ref="C7" r:id="rId12" xr:uid="{D1BEC871-A278-4D19-8483-AF3700821D8C}"/>
     <hyperlink ref="C8" r:id="rId13" xr:uid="{D0F3EBAB-DA02-4B0B-8D9A-6860F7DFB201}"/>
     <hyperlink ref="C9" r:id="rId14" xr:uid="{E60B62DA-5B15-4907-B80C-781E3021ED47}"/>
@@ -2158,13 +2193,14 @@
     <hyperlink ref="C11" r:id="rId16" xr:uid="{CD45665B-1C18-41CA-923E-ED06A0A2CE77}"/>
     <hyperlink ref="C12" r:id="rId17" xr:uid="{56902BCF-F84D-4640-8D82-AF99F0A1AB0E}"/>
     <hyperlink ref="C13" r:id="rId18" xr:uid="{35EB5830-E1E8-4379-B0E4-8BB51C307F7D}"/>
-    <hyperlink ref="C32" r:id="rId19" xr:uid="{979A6EFF-BE38-431F-90C8-DD0240C13FCF}"/>
+    <hyperlink ref="C33" r:id="rId19" xr:uid="{979A6EFF-BE38-431F-90C8-DD0240C13FCF}"/>
     <hyperlink ref="C18" r:id="rId20" xr:uid="{2C8F53DD-BED4-40A5-BDF1-AA79243370BF}"/>
     <hyperlink ref="C17" r:id="rId21" xr:uid="{63BDC646-D45C-4014-A468-4827561CB8BA}"/>
-    <hyperlink ref="C19" r:id="rId22" xr:uid="{77BD4718-B2E4-4E38-9F88-A42ED80F1BED}"/>
-    <hyperlink ref="D45" r:id="rId23" display="https://www.chem.agilent.com/store/productDetail.jsp?catalogId=200315&amp;catId=SubCat3ECS_227974" xr:uid="{05B22A45-547D-4534-8746-FAE9F259627B}"/>
+    <hyperlink ref="C20" r:id="rId22" xr:uid="{77BD4718-B2E4-4E38-9F88-A42ED80F1BED}"/>
+    <hyperlink ref="D46" r:id="rId23" display="https://www.chem.agilent.com/store/productDetail.jsp?catalogId=200315&amp;catId=SubCat3ECS_227974" xr:uid="{05B22A45-547D-4534-8746-FAE9F259627B}"/>
+    <hyperlink ref="C19" r:id="rId24" xr:uid="{975386FB-1E09-45BC-B436-5D43E6D22306}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>
--- a/Pedidos/Octubre 2019/Pedidos para Octubre.xlsx
+++ b/Pedidos/Octubre 2019/Pedidos para Octubre.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2911E785-F2E0-4D6D-919A-1ADB2B5C01D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52CB189-D039-496D-97DC-D97EE4B75E13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="143">
   <si>
     <t>Casa comercial</t>
   </si>
@@ -517,9 +517,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Presupuesto pedido a Gema - Modificar, Thermo en pdf </t>
-  </si>
-  <si>
     <t>AMICON ULTRA-0.5 CENTRIFUGAL FILTER UNI&amp;</t>
   </si>
   <si>
@@ -527,6 +524,39 @@
   </si>
   <si>
     <t>8 unidades</t>
+  </si>
+  <si>
+    <t>Tubos de poliestireno de fondo redondo 5mL (citometría)</t>
+  </si>
+  <si>
+    <t>paquete de 1000</t>
+  </si>
+  <si>
+    <t>1 bolsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presupuesto  - Modificar, Thermo en pdf </t>
+  </si>
+  <si>
+    <t>Tubos de poliestireno de fondo redondo 5ml (citometría)</t>
+  </si>
+  <si>
+    <t>Scharlab / Deltalab</t>
+  </si>
+  <si>
+    <t>300800.1</t>
+  </si>
+  <si>
+    <t>027-300700</t>
+  </si>
+  <si>
+    <t>027-300800</t>
+  </si>
+  <si>
+    <t>paquete de 2000</t>
+  </si>
+  <si>
+    <t>Tubos de poliestireno de fondo redondo 5ml - Gosselin (citometría)</t>
   </si>
 </sst>
 </file>
@@ -748,7 +778,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -912,21 +942,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -934,6 +949,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1223,10 +1255,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M48"/>
+  <dimension ref="A2:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,7 +1308,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="7"/>
-      <c r="H3" s="76" t="s">
+      <c r="H3" s="82" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1299,7 +1331,7 @@
       <c r="G4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="76"/>
+      <c r="H4" s="82"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
@@ -1320,7 +1352,7 @@
       <c r="G5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="76"/>
+      <c r="H5" s="82"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
@@ -1339,7 +1371,7 @@
         <v>24</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="76"/>
+      <c r="H6" s="82"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
@@ -1358,7 +1390,7 @@
         <v>24</v>
       </c>
       <c r="G7" s="58"/>
-      <c r="H7" s="76"/>
+      <c r="H7" s="82"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
@@ -1377,7 +1409,7 @@
         <v>24</v>
       </c>
       <c r="G8" s="58"/>
-      <c r="H8" s="76"/>
+      <c r="H8" s="82"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="60" t="s">
@@ -1396,7 +1428,7 @@
         <v>24</v>
       </c>
       <c r="G9" s="58"/>
-      <c r="H9" s="76"/>
+      <c r="H9" s="82"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
@@ -1415,7 +1447,7 @@
         <v>63</v>
       </c>
       <c r="G10" s="58"/>
-      <c r="H10" s="76"/>
+      <c r="H10" s="82"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
@@ -1434,7 +1466,7 @@
         <v>63</v>
       </c>
       <c r="G11" s="58"/>
-      <c r="H11" s="76"/>
+      <c r="H11" s="82"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
@@ -1453,7 +1485,7 @@
         <v>63</v>
       </c>
       <c r="G12" s="58"/>
-      <c r="H12" s="76"/>
+      <c r="H12" s="82"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
@@ -1472,7 +1504,7 @@
         <v>63</v>
       </c>
       <c r="G13" s="58"/>
-      <c r="H13" s="76"/>
+      <c r="H13" s="82"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
@@ -1504,7 +1536,7 @@
       <c r="G15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="75" t="s">
+      <c r="H15" s="81" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1512,25 +1544,25 @@
       <c r="A16" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="81" t="s">
+      <c r="C16" s="76" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="82">
+      <c r="E16" s="77">
         <v>89.2</v>
       </c>
-      <c r="F16" s="83" t="s">
+      <c r="F16" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="83" t="s">
+      <c r="G16" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="75"/>
+      <c r="H16" s="81"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
@@ -1554,53 +1586,53 @@
       <c r="G17" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="75"/>
+      <c r="H17" s="81"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="80" t="s">
+      <c r="B18" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="81" t="s">
+      <c r="C18" s="76" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="82">
+      <c r="E18" s="77">
         <v>61.3</v>
       </c>
-      <c r="F18" s="83" t="s">
+      <c r="F18" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="83" t="s">
+      <c r="G18" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="75"/>
+      <c r="H18" s="81"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="81" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="19" t="s">
+      <c r="E19" s="77">
+        <v>51.4</v>
+      </c>
+      <c r="F19" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="82">
-        <v>51.4</v>
-      </c>
-      <c r="F19" s="83" t="s">
-        <v>132</v>
-      </c>
-      <c r="G19" s="83" t="s">
+      <c r="G19" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="75"/>
+      <c r="H19" s="81"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
@@ -1622,7 +1654,7 @@
       <c r="G20" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="H20" s="75"/>
+      <c r="H20" s="81"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
@@ -1656,8 +1688,8 @@
       <c r="G22" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="75" t="s">
-        <v>129</v>
+      <c r="H22" s="81" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1682,7 +1714,7 @@
       <c r="G23" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="75"/>
+      <c r="H23" s="81"/>
     </row>
     <row r="24" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
@@ -1704,7 +1736,7 @@
         <v>72</v>
       </c>
       <c r="G24" s="18"/>
-      <c r="H24" s="75"/>
+      <c r="H24" s="81"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -1733,7 +1765,7 @@
       <c r="G25" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="H25" s="75"/>
+      <c r="H25" s="81"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
@@ -1757,7 +1789,7 @@
       <c r="G26" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="H26" s="75"/>
+      <c r="H26" s="81"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
@@ -1781,397 +1813,497 @@
       <c r="G27" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="H27" s="75"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
-        <v>107</v>
-      </c>
+      <c r="H27" s="81"/>
+    </row>
+    <row r="28" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
       <c r="B28" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="54" t="s">
-        <v>104</v>
+        <v>132</v>
+      </c>
+      <c r="C28" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="25">
+        <v>352052</v>
       </c>
       <c r="E28" s="40">
-        <v>48.27</v>
+        <v>126</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="G28" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="H28" s="75"/>
+        <v>133</v>
+      </c>
+      <c r="G28" s="78" t="s">
+        <v>134</v>
+      </c>
+      <c r="H28" s="81"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="45"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="31">
+        <v>11759412</v>
+      </c>
+      <c r="E29" s="6">
+        <v>171</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="81"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H30" s="78" t="s">
-        <v>117</v>
-      </c>
+      <c r="B30" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="40">
+        <v>48.27</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30" s="81"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="9">
-        <v>673.19</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7">
-        <v>1</v>
-      </c>
-      <c r="H31" s="78"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="45"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="67" t="s">
+      <c r="B32" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58" t="s">
+      <c r="D32" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="19"/>
+      <c r="F32" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G32" s="58">
-        <v>1</v>
-      </c>
-      <c r="H32" s="78"/>
+      <c r="G32" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" s="84" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C33" s="26" t="s">
+      <c r="B33" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H33" s="78"/>
+      <c r="D33" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="9">
+        <v>673.19</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7">
+        <v>1</v>
+      </c>
+      <c r="H33" s="84"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
+      <c r="A34" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="58">
+        <v>1</v>
+      </c>
+      <c r="H34" s="84"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="19"/>
+      <c r="F35" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H35" s="84"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="57" t="s">
+      <c r="C37" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="71" t="s">
+      <c r="D37" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="72">
+      <c r="E37" s="72">
         <v>246</v>
       </c>
-      <c r="F35" s="58" t="s">
+      <c r="F37" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="G35" s="58">
+      <c r="G37" s="58">
         <v>1</v>
       </c>
-      <c r="H35" s="76" t="s">
+      <c r="H37" s="82" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E36" s="20">
-        <v>396</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="G36" s="19">
-        <v>1</v>
-      </c>
-      <c r="H36" s="76"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="45"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B38" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="67">
-        <v>5000113</v>
-      </c>
-      <c r="E38" s="72">
-        <v>84</v>
-      </c>
-      <c r="F38" s="69"/>
-      <c r="G38" s="58">
+      <c r="B38" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="20">
+        <v>396</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="19">
         <v>1</v>
       </c>
-      <c r="H38" s="79" t="s">
-        <v>111</v>
-      </c>
+      <c r="H38" s="82"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B39" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="67">
-        <v>5000114</v>
-      </c>
-      <c r="E39" s="72">
-        <v>96</v>
-      </c>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58">
-        <v>1</v>
-      </c>
-      <c r="H39" s="79"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B40" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="6" t="s">
+      <c r="B40" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="13">
-        <v>5000115</v>
-      </c>
-      <c r="E40" s="20">
-        <v>63</v>
-      </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7">
+      <c r="D40" s="67">
+        <v>5000113</v>
+      </c>
+      <c r="E40" s="72">
+        <v>84</v>
+      </c>
+      <c r="F40" s="69"/>
+      <c r="G40" s="58">
         <v>1</v>
       </c>
-      <c r="H40" s="79"/>
+      <c r="H40" s="85" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="45"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="10"/>
+      <c r="A41" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="67">
+        <v>5000114</v>
+      </c>
+      <c r="E41" s="72">
+        <v>96</v>
+      </c>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58">
+        <v>1</v>
+      </c>
+      <c r="H41" s="85"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B42" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="E42" s="40">
-        <v>46.85</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H42" s="75" t="s">
-        <v>115</v>
-      </c>
+      <c r="B42" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="13">
+        <v>5000115</v>
+      </c>
+      <c r="E42" s="20">
+        <v>63</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7">
+        <v>1</v>
+      </c>
+      <c r="H42" s="85"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B43" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D43" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="E43" s="40">
-        <v>10.75</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="H43" s="77"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
         <v>107</v>
       </c>
       <c r="B44" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" s="40">
+        <v>46.85</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H44" s="81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" s="40">
+        <v>10.75</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H45" s="83"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C46" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="54" t="s">
+      <c r="D46" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="E44" s="40">
+      <c r="E46" s="40">
         <v>5.55</v>
       </c>
-      <c r="F44" s="19" t="s">
+      <c r="F46" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="G44" s="19" t="s">
+      <c r="G46" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="H44" s="77"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="6" t="s">
+      <c r="H46" s="83"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C48" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D46" s="31">
+      <c r="D48" s="31">
         <v>200315</v>
       </c>
-      <c r="E46" s="73">
+      <c r="E48" s="73">
         <v>311</v>
       </c>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6" t="s">
+      <c r="F48" s="6"/>
+      <c r="G48" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H46" s="74" t="s">
+      <c r="H48" s="74" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C48" s="10"/>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="74"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E50" s="73"/>
+      <c r="F50" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H50" s="74"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="E51" s="73"/>
+      <c r="F51" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H51" s="74"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C53" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="H15:H20"/>
     <mergeCell ref="H3:H13"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="H22:H28"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="H22:H30"/>
+    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H40:H42"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -2183,9 +2315,9 @@
     <hyperlink ref="C16" r:id="rId6" xr:uid="{29A08B45-F04E-451E-BC08-1AD68156DD76}"/>
     <hyperlink ref="C22" r:id="rId7" xr:uid="{C7764FCB-3184-44CB-885F-53B96F0D5A7B}"/>
     <hyperlink ref="C23" r:id="rId8" location="/18265017" xr:uid="{0CFE1671-9932-4231-A68A-BA1C3F291F77}"/>
-    <hyperlink ref="C30" r:id="rId9" xr:uid="{CE355E3B-D447-4876-8E1C-6FBE3AB83986}"/>
-    <hyperlink ref="C35" r:id="rId10" xr:uid="{587A0B7E-8EFF-4C28-8988-3A0C9A8EC216}"/>
-    <hyperlink ref="C36" r:id="rId11" xr:uid="{2D574AE0-B5FF-4EBA-93B9-BE499EAD7754}"/>
+    <hyperlink ref="C32" r:id="rId9" xr:uid="{CE355E3B-D447-4876-8E1C-6FBE3AB83986}"/>
+    <hyperlink ref="C37" r:id="rId10" xr:uid="{587A0B7E-8EFF-4C28-8988-3A0C9A8EC216}"/>
+    <hyperlink ref="C38" r:id="rId11" xr:uid="{2D574AE0-B5FF-4EBA-93B9-BE499EAD7754}"/>
     <hyperlink ref="C7" r:id="rId12" xr:uid="{D1BEC871-A278-4D19-8483-AF3700821D8C}"/>
     <hyperlink ref="C8" r:id="rId13" xr:uid="{D0F3EBAB-DA02-4B0B-8D9A-6860F7DFB201}"/>
     <hyperlink ref="C9" r:id="rId14" xr:uid="{E60B62DA-5B15-4907-B80C-781E3021ED47}"/>
@@ -2193,14 +2325,16 @@
     <hyperlink ref="C11" r:id="rId16" xr:uid="{CD45665B-1C18-41CA-923E-ED06A0A2CE77}"/>
     <hyperlink ref="C12" r:id="rId17" xr:uid="{56902BCF-F84D-4640-8D82-AF99F0A1AB0E}"/>
     <hyperlink ref="C13" r:id="rId18" xr:uid="{35EB5830-E1E8-4379-B0E4-8BB51C307F7D}"/>
-    <hyperlink ref="C33" r:id="rId19" xr:uid="{979A6EFF-BE38-431F-90C8-DD0240C13FCF}"/>
+    <hyperlink ref="C35" r:id="rId19" xr:uid="{979A6EFF-BE38-431F-90C8-DD0240C13FCF}"/>
     <hyperlink ref="C18" r:id="rId20" xr:uid="{2C8F53DD-BED4-40A5-BDF1-AA79243370BF}"/>
     <hyperlink ref="C17" r:id="rId21" xr:uid="{63BDC646-D45C-4014-A468-4827561CB8BA}"/>
     <hyperlink ref="C20" r:id="rId22" xr:uid="{77BD4718-B2E4-4E38-9F88-A42ED80F1BED}"/>
-    <hyperlink ref="D46" r:id="rId23" display="https://www.chem.agilent.com/store/productDetail.jsp?catalogId=200315&amp;catId=SubCat3ECS_227974" xr:uid="{05B22A45-547D-4534-8746-FAE9F259627B}"/>
+    <hyperlink ref="D48" r:id="rId23" display="https://www.chem.agilent.com/store/productDetail.jsp?catalogId=200315&amp;catId=SubCat3ECS_227974" xr:uid="{05B22A45-547D-4534-8746-FAE9F259627B}"/>
     <hyperlink ref="C19" r:id="rId24" xr:uid="{975386FB-1E09-45BC-B436-5D43E6D22306}"/>
+    <hyperlink ref="D29" r:id="rId25" display="https://www.fishersci.es/shop/products/gosselin-5ml-round-base-test-tubes/11759412" xr:uid="{E08E850E-4657-4505-A3EA-AD8342144E1E}"/>
+    <hyperlink ref="D28" r:id="rId26" display="https://www.fishersci.es/shop/products/falcon-round-bottom-polystyrene-tubes-13/10579511" xr:uid="{5991CE39-A291-4623-8ABD-3163B3D0F81E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>